--- a/Documents/915-1045-Group Number 1– To-do list for Homework Number.xlsx
+++ b/Documents/915-1045-Group Number 1– To-do list for Homework Number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosstefanis/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BD7EEC-96C4-C648-A70A-0AE48C35B473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C96372-6629-1744-B867-044C4FE83CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18500" yWindow="500" windowWidth="17340" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
   <si>
     <t>To-do list</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>0.5 day</t>
+  </si>
+  <si>
+    <t>Group Meeting with Ridhwan Ibrahim</t>
   </si>
 </sst>
 </file>
@@ -764,16 +767,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFCC33C3-6B2A-6547-B921-62B96090336C}" name="Project16734" displayName="Project16734" ref="B7:H16" totalsRowShown="0">
-  <autoFilter ref="B7:H16" xr:uid="{AFCC33C3-6B2A-6547-B921-62B96090336C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A3B4B1C3-86BD-D645-AE6E-57315EFE9217}" name="Project167346" displayName="Project167346" ref="B7:H16" totalsRowShown="0">
+  <autoFilter ref="B7:H16" xr:uid="{A3B4B1C3-86BD-D645-AE6E-57315EFE9217}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{39AA361C-4ADE-FE47-AE79-A387096339D7}" name="% done"/>
-    <tableColumn id="2" xr3:uid="{33CD7C09-9960-244D-A2B3-8FC5A6AE2987}" name="Phase" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{07D61850-CD5F-8742-853F-DE1CDF3A21B5}" name="Start By"/>
-    <tableColumn id="7" xr3:uid="{27BF1843-6DFF-0444-A46C-602488842EAC}" name="Original Due By"/>
-    <tableColumn id="3" xr3:uid="{ACDF4289-B63B-F648-82CF-EE75C91193AA}" name="Revised Due By" dataCellStyle="Date"/>
-    <tableColumn id="8" xr3:uid="{C7D7F60D-2E24-4A47-BA5C-A73D95D4479E}" name="Number Of Days" dataDxfId="0" dataCellStyle="Date"/>
-    <tableColumn id="4" xr3:uid="{EA03D081-B30D-F843-A031-CB1DE23958AE}" name="Revision Notes"/>
+    <tableColumn id="1" xr3:uid="{A92001D6-08B0-AF4A-B0C7-80E1432037D2}" name="% done"/>
+    <tableColumn id="2" xr3:uid="{89FEFB04-FA2B-854A-BAE4-EF3FB3A17C7C}" name="Phase" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{5E385543-8D36-3F44-A463-BB2C7B0D4C1D}" name="Start By"/>
+    <tableColumn id="7" xr3:uid="{DFD5A6FA-A559-9D4D-8C2D-D7B3C6434665}" name="Original Due By"/>
+    <tableColumn id="3" xr3:uid="{1476A65D-AFFC-2746-8C18-DB5AA2E6B67C}" name="Revised Due By" dataCellStyle="Date"/>
+    <tableColumn id="8" xr3:uid="{8CD46F19-59EA-D240-8B89-E3639234134A}" name="Number Of Days" dataDxfId="0" dataCellStyle="Date"/>
+    <tableColumn id="4" xr3:uid="{5586C970-C879-834E-BA3C-CC42C1A9DF22}" name="Revision Notes"/>
   </tableColumns>
   <tableStyleInfo name="To-do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1837,8 +1840,8 @@
   </sheetPr>
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2080,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D15" s="7">
         <v>45940</v>
@@ -2135,16 +2138,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="H7" xr:uid="{97C3FA0A-CB80-244E-AF57-9F7D5FFF55E6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due By date in this column under this heading" sqref="D7:G7" xr:uid="{1BAC018B-6113-B947-B2FB-97F427740A31}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter project Phase in this column under this heading" sqref="C7" xr:uid="{A1F32F1F-0D73-0246-837F-2462DA249095}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter deadline Date in cell at right" sqref="B4:E4" xr:uid="{47F9783F-8B4E-E44D-B651-BD37946A4886}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter deadline Date in this cell" sqref="F4:H4" xr:uid="{D9440C51-1F68-1743-8A77-0139D72F7835}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of worksheet is in this cell. Enter Name of person to complete this project in cell D3 and deadline Date in cell D4. Enter project details in table starting in cell B7" sqref="B1" xr:uid="{215BBB7B-A320-B748-9FFB-213571E293C9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter To be completed by person Name in cell at right" sqref="B3:E3" xr:uid="{308808F5-B124-C340-81C8-7C4AFD121D19}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter To be completed by person Name in this cell" sqref="F3:H3" xr:uid="{10E795C7-5D5D-6C43-9935-42B82DB325DB}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Percent done in this column under this heading. Data bar showing Percent done is automatically updated in each row. Use heading filters to find specific entries" sqref="B7" xr:uid="{4B5A8FA8-8F82-7C4D-A319-124CFE73BDD5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter details of Project 1 in table below" sqref="B6:H6" xr:uid="{D0667529-9DD7-404B-8A7A-54024C05DBDF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="H7" xr:uid="{DE1EA509-0E3D-764A-BEE8-492226EB241A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due By date in this column under this heading" sqref="D7:G7" xr:uid="{A375AB57-14B6-454D-A7A1-CB5156053CAF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter project Phase in this column under this heading" sqref="C7" xr:uid="{A075CAB1-596C-6F48-B8D0-ACFE91E8C27B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter deadline Date in cell at right" sqref="B4:E4" xr:uid="{C1F9F8D9-8F8E-6040-A482-EE66AE95F8F0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter deadline Date in this cell" sqref="F4:H4" xr:uid="{846F0DC8-369E-AF41-9393-2823C51AEFF6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of worksheet is in this cell. Enter Name of person to complete this project in cell D3 and deadline Date in cell D4. Enter project details in table starting in cell B7" sqref="B1" xr:uid="{913F21CE-A59D-7642-8E78-531FB76B340C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter To be completed by person Name in cell at right" sqref="B3:E3" xr:uid="{7B823A2A-D1B6-BD47-BD56-000AE142E5F0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter To be completed by person Name in this cell" sqref="F3:H3" xr:uid="{0F4A6C3D-5FD9-524A-8B33-0F2FBC7D3548}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Percent done in this column under this heading. Data bar showing Percent done is automatically updated in each row. Use heading filters to find specific entries" sqref="B7" xr:uid="{FF56D793-2642-AF4E-8BB3-E5FA15FAC491}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter details of Project 1 in table below" sqref="B6:H6" xr:uid="{F8CBC4FD-002C-C845-AC88-5CD6330226FE}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
